--- a/study/step_06_xidoWeb/work/웹페이지 구성.xlsx
+++ b/study/step_06_xidoWeb/work/웹페이지 구성.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\xido_ver2\design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xido\Documents\GitHub\webStudy1603\study\step_06_xidoWeb\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="85">
   <si>
     <t>xido</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,10 +266,6 @@
   </si>
   <si>
     <t>소제목(h5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>접근성 고려전</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -352,6 +348,38 @@
   </si>
   <si>
     <t>브라우저 n-wax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접근성 고려전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#FF0066</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#DDDDDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#595959</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#FFFFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.16:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#FFFFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.86:1 비율 큰글씨 사용가능 (#595959명도x)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1346,7 +1374,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1365,12 +1393,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1389,6 +1411,288 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1398,299 +1702,32 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1980,8 +2017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B27" zoomScale="160" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1993,808 +2030,820 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="91" t="s">
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="87"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="2:12" s="2" customFormat="1" ht="17.649999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B3" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="109" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="2:12" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B4" s="111"/>
+      <c r="C4" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="113"/>
+      <c r="G4" s="112" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="2:12" ht="17.649999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="106" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B7" s="10"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B9" s="10"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B12" s="10"/>
+      <c r="C12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B13" s="10"/>
+      <c r="C13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B14" s="10"/>
+      <c r="C14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B15" s="10"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B16" s="10"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B17" s="10"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B18" s="10"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B19" s="10"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B20" s="10"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B21" s="10"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B22" s="10"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B23" s="13"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="2:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.6">
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="K25" s="68"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B26" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="2:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B27" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="K2" s="92"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="2:12" s="2" customFormat="1" ht="17.649999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B3" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="2:12" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B4" s="28"/>
-      <c r="C4" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="2:12" ht="17.649999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B7" s="12"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B9" s="12"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B12" s="12"/>
-      <c r="C12" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B13" s="12"/>
-      <c r="C13" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B14" s="12"/>
-      <c r="C14" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B15" s="12"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B16" s="12"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B17" s="12"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B18" s="12"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B19" s="12"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B20" s="12"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B21" s="12"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B22" s="12"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B23" s="18"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="2:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="B24" s="89"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B25" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="94" t="s">
-        <v>73</v>
-      </c>
-      <c r="K25" s="95"/>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B26" s="96" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="110" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="111"/>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="2:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B27" s="109" t="s">
+      <c r="C27" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="112" t="s">
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="113"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="114" t="s">
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="114"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="114"/>
-      <c r="J27" s="6" t="s">
+      <c r="K27" s="73"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B28" s="34"/>
+      <c r="C28" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="K27" s="7"/>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B28" s="49"/>
-      <c r="C28" s="85" t="s">
+      <c r="D28" s="92"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="86"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="107" t="s">
+      <c r="G28" s="95"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="J28" s="64"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.6">
+      <c r="B29" s="101" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="58"/>
+      <c r="F29" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="I29" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="J29" s="81"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.6">
+      <c r="B30" s="101"/>
+      <c r="C30" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="51"/>
+      <c r="F30" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="J30" s="78"/>
+      <c r="K30" s="79"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.6">
+      <c r="B31" s="101"/>
+      <c r="C31" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="51"/>
+      <c r="F31" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H31" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="I31" s="115">
+        <v>0.29236111111111113</v>
+      </c>
+      <c r="J31" s="116"/>
+      <c r="K31" s="117"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.6">
+      <c r="B32" s="101"/>
+      <c r="C32" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="51"/>
+      <c r="F32" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="H32" s="46"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="79"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B33" s="101"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="76"/>
+    </row>
+    <row r="34" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B34" s="103"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="76"/>
+    </row>
+    <row r="35" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B35" s="100" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="92"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" s="95"/>
+      <c r="H35" s="96"/>
+      <c r="I35" s="97"/>
+      <c r="J35" s="98"/>
+      <c r="K35" s="99"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B36" s="101"/>
+      <c r="C36" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" s="22"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="74"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="76"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B37" s="101"/>
+      <c r="C37" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="23"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="76"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B38" s="101"/>
+      <c r="C38" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="23"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="76"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B39" s="101"/>
+      <c r="C39" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" s="23"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="76"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B40" s="101"/>
+      <c r="C40" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="G40" s="23"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="76"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B41" s="101"/>
+      <c r="C41" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="108" t="s">
-        <v>69</v>
-      </c>
-      <c r="J28" s="21"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.6">
-      <c r="B29" s="51" t="s">
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G41" s="23"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="74"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="76"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B42" s="101"/>
+      <c r="C42" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="97" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="98" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="99"/>
-      <c r="F29" s="100" t="s">
-        <v>46</v>
-      </c>
-      <c r="G29" s="101"/>
-      <c r="H29" s="102"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="104"/>
-      <c r="K29" s="105"/>
-      <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.6">
-      <c r="B30" s="51"/>
-      <c r="C30" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="82"/>
-      <c r="F30" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" s="38"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="72"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.6">
-      <c r="B31" s="51"/>
-      <c r="C31" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="82"/>
-      <c r="F31" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" s="38"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="72"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.6">
-      <c r="B32" s="51"/>
-      <c r="C32" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="82"/>
-      <c r="F32" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="G32" s="38"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="72"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B33" s="51"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="75"/>
-    </row>
-    <row r="34" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B34" s="52"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="73"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-    </row>
-    <row r="35" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B35" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="86"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="G35" s="24"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="78"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B36" s="51"/>
-      <c r="C36" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="G36" s="37"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="73"/>
-      <c r="J36" s="74"/>
-      <c r="K36" s="75"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B37" s="51"/>
-      <c r="C37" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="G37" s="38"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="75"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B38" s="51"/>
-      <c r="C38" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="G38" s="38"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="73"/>
-      <c r="J38" s="74"/>
-      <c r="K38" s="75"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B39" s="51"/>
-      <c r="C39" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="G39" s="38"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="73"/>
-      <c r="J39" s="74"/>
-      <c r="K39" s="75"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B40" s="51"/>
-      <c r="C40" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="G40" s="38"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="73"/>
-      <c r="J40" s="74"/>
-      <c r="K40" s="75"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B41" s="51"/>
-      <c r="C41" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="G41" s="38"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="73"/>
-      <c r="J41" s="74"/>
-      <c r="K41" s="75"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B42" s="51"/>
-      <c r="C42" s="46" t="s">
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="23"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="75"/>
+      <c r="K42" s="76"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B43" s="101"/>
+      <c r="C43" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="54" t="s">
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="G42" s="38"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="73"/>
-      <c r="J42" s="74"/>
-      <c r="K42" s="75"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B43" s="51"/>
-      <c r="C43" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="G43" s="38"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="73"/>
-      <c r="J43" s="74"/>
-      <c r="K43" s="75"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="76"/>
     </row>
     <row r="44" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B44" s="52"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="67"/>
-      <c r="I44" s="73"/>
-      <c r="J44" s="74"/>
-      <c r="K44" s="75"/>
+      <c r="B44" s="103"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="75"/>
+      <c r="K44" s="76"/>
     </row>
     <row r="45" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="B45" s="50"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="84"/>
-      <c r="E45" s="84"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="63"/>
-      <c r="H45" s="68"/>
-      <c r="I45" s="73"/>
-      <c r="J45" s="74"/>
-      <c r="K45" s="75"/>
+      <c r="B45" s="100"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="74"/>
+      <c r="J45" s="75"/>
+      <c r="K45" s="76"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B46" s="51"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="73"/>
-      <c r="J46" s="74"/>
-      <c r="K46" s="75"/>
+      <c r="B46" s="101"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="75"/>
+      <c r="K46" s="76"/>
     </row>
     <row r="47" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B47" s="57"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="69"/>
-      <c r="I47" s="79"/>
-      <c r="J47" s="80"/>
-      <c r="K47" s="81"/>
+      <c r="B47" s="102"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="88"/>
+      <c r="J47" s="89"/>
+      <c r="K47" s="90"/>
     </row>
     <row r="48" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.6"/>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B35:B44"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
     <mergeCell ref="I45:K45"/>
     <mergeCell ref="I46:K46"/>
     <mergeCell ref="I47:K47"/>
@@ -2807,19 +2856,27 @@
     <mergeCell ref="I41:K41"/>
     <mergeCell ref="I42:K42"/>
     <mergeCell ref="I43:K43"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B35:B44"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="I44:K44"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="F28:H28"/>
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="E3:J3"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:K27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
